--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.sally\Downloads\Projeto - Gabriel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.sally\Downloads\Projeto - Gabriel\Documentos do Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -32,17 +32,38 @@
     <t>História do Usuário</t>
   </si>
   <si>
-    <t>Critérios de Aceitação</t>
-  </si>
-  <si>
-    <t>Prioridade</t>
-  </si>
-  <si>
     <t>US01</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Como </t>
+    <t>US02</t>
+  </si>
+  <si>
+    <t>US03</t>
+  </si>
+  <si>
+    <t>US04</t>
+  </si>
+  <si>
+    <t>US05</t>
+  </si>
+  <si>
+    <t>US06</t>
+  </si>
+  <si>
+    <t>US07</t>
+  </si>
+  <si>
+    <t>Critérios de aceitação (resumo)</t>
+  </si>
+  <si>
+    <t>Sprint alvo</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Como usuário, quero ver um </t>
     </r>
     <r>
       <rPr>
@@ -53,17 +74,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>usuário</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, quero </t>
+      <t>ranking de FIIs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> com métricas principais para comparar rapidamente os fundos.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ao abrir o sistema, vejo uma tabela com vários FIIs, com colunas de risco, retorno 12m, vol., DD, cotação, P/VP etc., ordenada por um critério padrão.</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>Entregue</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Como usuário, quero poder </t>
     </r>
     <r>
       <rPr>
@@ -74,34 +109,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ver um ranking de FIIs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> com métricas chave.</t>
-    </r>
-  </si>
-  <si>
-    <t>Alta</t>
-  </si>
-  <si>
-    <t>US02</t>
-  </si>
-  <si>
-    <t>Campo de busca; ao consultar, exibir métricas e 2 gráficos (preço normalizado 24m e drawdown).</t>
-  </si>
-  <si>
-    <t>US03</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Como </t>
+      <t>ordenar o ranking por diferentes colunas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (ex.: retorno 12m, P/VP).</t>
+    </r>
+  </si>
+  <si>
+    <t>Há um seletor de coluna; ao trocar a coluna, a tabela é reordenada corretamente.</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>Não entregue</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Como usuário, quero </t>
     </r>
     <r>
       <rPr>
@@ -112,17 +144,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>usuário</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, quero </t>
+      <t>pesquisar um FII pelo código</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e ver um resumo das principais métricas.</t>
+    </r>
+  </si>
+  <si>
+    <t>Digito MXRF11, clico em “Analisar” e vejo o ticker em destaque + cards com retorno 12m, vol., DD, P/VP, DY 12m, liquidez, segmento, sem erros.</t>
+  </si>
+  <si>
+    <t>S2–S3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Como usuário, quero ver </t>
     </r>
     <r>
       <rPr>
@@ -133,28 +176,25 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>saber a fonte de cada dado</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Labels/legendas indicando “Yahoo” vs “Site”; quando indisponível, exibir “N/D”.</t>
-  </si>
-  <si>
-    <t>US04</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Como </t>
+      <t>gráficos de preço e risco</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do FII selecionado.</t>
+    </r>
+  </si>
+  <si>
+    <t>Para um FII válido, vejo gráficos de preço, preço normalizado e drawdown dos últimos 24 meses, sem quebras visuais.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Como usuário, quero ver </t>
     </r>
     <r>
       <rPr>
@@ -165,17 +205,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>usuário</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, quero </t>
+      <t>gráfico de dividendos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do FII selecionado.</t>
+    </r>
+  </si>
+  <si>
+    <t>Para um FII válido, vejo gráfico de dividendos mensais (últimos 24 meses).</t>
+  </si>
+  <si>
+    <t>S3–S4</t>
+  </si>
+  <si>
+    <t>Entregue (forma mensal)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Como usuário, quero </t>
     </r>
     <r>
       <rPr>
@@ -186,31 +240,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>filtrar por segmento</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (ex.: papel, tijolo).</t>
-    </r>
-  </si>
-  <si>
-    <t>Filtro que restringe a lista e preserva ordenação; desempenho aceitável.</t>
-  </si>
-  <si>
-    <t>Média</t>
-  </si>
-  <si>
-    <t>US05</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Como </t>
+      <t>ver um resumo da minha carteira</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> escolhendo alguns FIIs do ranking.</t>
+    </r>
+  </si>
+  <si>
+    <t>Na aba “Minha carteira”, escolho FIIs, vejo quantidade de ativos, risco médio, retorno médio 12m e tabela só com aqueles ativos.</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Como usuário, quero </t>
     </r>
     <r>
       <rPr>
@@ -221,17 +272,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>usuário</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, quero </t>
+      <t>salvar meus favoritos e carteira</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> para não precisar selecionar sempre.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ao marcar ativos como favoritos/carteira, as escolhas ficam salvas em arquivo e são recarregadas ao abrir a aplicação.</t>
+  </si>
+  <si>
+    <t>S4–S5</t>
+  </si>
+  <si>
+    <t>US08</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Como usuário, quero </t>
     </r>
     <r>
       <rPr>
@@ -242,28 +307,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>exportar o ranking para CSV</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Botão “Exportar” gera CSV com as colunas visíveis.</t>
-  </si>
-  <si>
-    <t>US06</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Como </t>
+      <t>personalizar as colunas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> exibidas no ranking.</t>
+    </r>
+  </si>
+  <si>
+    <t>Há uma interface para marcar/desmarcar colunas, e a tabela se atualiza com as colunas escolhidas.</t>
+  </si>
+  <si>
+    <t>US09</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Como usuário, quero ver um </t>
     </r>
     <r>
       <rPr>
@@ -274,17 +339,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>time</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, quero </t>
+      <t>gráfico de Dividend Yield por ano/semestre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> para entender a consistência de pagamentos.</t>
+    </r>
+  </si>
+  <si>
+    <t>Para um FII, vejo um gráfico de DY agregado por ano ou semestre.</t>
+  </si>
+  <si>
+    <t>TS01</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Como desenvolvedor, quero uma </t>
     </r>
     <r>
       <rPr>
@@ -295,28 +371,48 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>cachear as consultas por 24h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Requisições repetidas dentro de 24h não rebaixam o site; tempo de resposta menor.</t>
-  </si>
-  <si>
-    <t>US07</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Como </t>
+      <t>base de dados centralizada dos FIIs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (script de carga + armazenamento local/Atlas).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Script que coleta dados de todas as fontes e gera </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>ranking_seed.parquet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (ou popula Mongo). Pipeline rodando sem erros para o conjunto inicial de FIIs.</t>
+    </r>
+  </si>
+  <si>
+    <t>TS02</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Como desenvolvedor, quero ter um </t>
     </r>
     <r>
       <rPr>
@@ -327,99 +423,69 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>time</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, quero </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tratamento de erros</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (timeouts, parsing, sem dados).</t>
-    </r>
-  </si>
-  <si>
-    <t>Mensagens amigáveis; app não quebra; logs mínimos para depuração.</t>
-  </si>
-  <si>
-    <t>Tabela ordenável; colunas: ativo, segmento, ret_12m, vol_252d, maxdd_2y, P/VP, DY 12m, liquidez; valores formatados.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Como </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>usuário</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, quero </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pesquisar um FII pelo ativo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
+      <t>pacote executável simples</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> para rodar o MVP em outras máquinas.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Estrutura de pastas organizada, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>requirements.txt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> configurado, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Executar.bat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> funcionando e README com instruções de instalação.</t>
+    </r>
+  </si>
+  <si>
+    <t>S5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,6 +500,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -471,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -481,6 +552,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -762,21 +836,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="39.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.21875" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -784,111 +859,204 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="57.6">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.2">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="57.6">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.8">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.2">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43.2">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.2">
+      <c r="A9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="43.2">
+      <c r="A10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="57.6">
+      <c r="A11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
+    <row r="12" spans="1:5" ht="57.6">
+      <c r="A12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>